--- a/frontend/public/csv/KRWIDR.xlsx
+++ b/frontend/public/csv/KRWIDR.xlsx
@@ -1,23 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\song-e-pay\frontend\public\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4133488F-9CF4-41E0-87F2-350A92BB8143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5688"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -992,7 +1004,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1318,23 +1330,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E316"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="A292" workbookViewId="0">
+      <selection activeCell="N311" sqref="N310:N311"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.09765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.08203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.9140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>315</v>
       </c>
@@ -1351,7 +1363,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1359,16 +1371,16 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>8.84</v>
+        <v>0.25</v>
       </c>
       <c r="E2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1376,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>8.92</v>
+        <v>0.25</v>
       </c>
       <c r="E3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1393,16 +1405,16 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>8.9</v>
+        <v>0.25</v>
       </c>
       <c r="E4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1410,16 +1422,16 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>8.9</v>
+        <v>0.25</v>
       </c>
       <c r="E5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1427,16 +1439,16 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>8.92</v>
+        <v>0.25</v>
       </c>
       <c r="E6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1444,16 +1456,16 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>8.98</v>
+        <v>0.25</v>
       </c>
       <c r="E7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1461,16 +1473,16 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>8.94</v>
+        <v>0.25</v>
       </c>
       <c r="E8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1478,16 +1490,16 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>8.9600000000000009</v>
+        <v>0.25</v>
       </c>
       <c r="E9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1495,16 +1507,16 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>8.9600000000000009</v>
+        <v>0.25</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1512,16 +1524,16 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11">
-        <v>8.9600000000000009</v>
+        <v>0.25</v>
       </c>
       <c r="E11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1529,16 +1541,16 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12">
-        <v>8.9600000000000009</v>
+        <v>0.25</v>
       </c>
       <c r="E12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1546,16 +1558,16 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13">
-        <v>8.99</v>
+        <v>0.25</v>
       </c>
       <c r="E13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1563,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14">
-        <v>8.92</v>
+        <v>0.25</v>
       </c>
       <c r="E14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1580,16 +1592,16 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D15">
-        <v>8.85</v>
+        <v>0.25</v>
       </c>
       <c r="E15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1597,16 +1609,16 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D16">
-        <v>8.8699999999999992</v>
+        <v>0.25</v>
       </c>
       <c r="E16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1614,16 +1626,16 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D17">
-        <v>8.8699999999999992</v>
+        <v>0.25</v>
       </c>
       <c r="E17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1631,16 +1643,16 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D18">
-        <v>8.8699999999999992</v>
+        <v>0.25</v>
       </c>
       <c r="E18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1648,16 +1660,16 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D19">
-        <v>8.7899999999999991</v>
+        <v>0.25</v>
       </c>
       <c r="E19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1665,16 +1677,16 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D20">
-        <v>8.7200000000000006</v>
+        <v>0.25</v>
       </c>
       <c r="E20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1682,16 +1694,16 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21">
-        <v>8.77</v>
+        <v>0.25</v>
       </c>
       <c r="E21" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1699,16 +1711,16 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D22">
-        <v>8.82</v>
+        <v>0.25</v>
       </c>
       <c r="E22" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1716,16 +1728,16 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D23">
-        <v>8.82</v>
+        <v>0.25</v>
       </c>
       <c r="E23" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1733,16 +1745,16 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D24">
-        <v>8.84</v>
+        <v>0.25</v>
       </c>
       <c r="E24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1750,16 +1762,16 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D25">
-        <v>8.82</v>
+        <v>0.25</v>
       </c>
       <c r="E25" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1767,16 +1779,16 @@
         <v>0</v>
       </c>
       <c r="C26">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D26">
-        <v>8.8000000000000007</v>
+        <v>0.25</v>
       </c>
       <c r="E26" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1784,16 +1796,16 @@
         <v>0</v>
       </c>
       <c r="C27">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27">
-        <v>8.84</v>
+        <v>0.25</v>
       </c>
       <c r="E27" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1801,16 +1813,16 @@
         <v>0</v>
       </c>
       <c r="C28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D28">
-        <v>8.75</v>
+        <v>0.25</v>
       </c>
       <c r="E28" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1818,16 +1830,16 @@
         <v>0</v>
       </c>
       <c r="C29">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D29">
-        <v>8.75</v>
+        <v>0.25</v>
       </c>
       <c r="E29" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1835,16 +1847,16 @@
         <v>0</v>
       </c>
       <c r="C30">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D30">
-        <v>8.73</v>
+        <v>0.25</v>
       </c>
       <c r="E30" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1852,16 +1864,16 @@
         <v>0</v>
       </c>
       <c r="C31">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D31">
-        <v>8.6300000000000008</v>
+        <v>0.25</v>
       </c>
       <c r="E31" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1869,16 +1881,16 @@
         <v>0</v>
       </c>
       <c r="C32">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D32">
-        <v>8.7200000000000006</v>
+        <v>0.25</v>
       </c>
       <c r="E32" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1886,16 +1898,16 @@
         <v>0</v>
       </c>
       <c r="C33">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D33">
-        <v>8.76</v>
+        <v>0.25</v>
       </c>
       <c r="E33" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1903,16 +1915,16 @@
         <v>0</v>
       </c>
       <c r="C34">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D34">
-        <v>8.7100000000000009</v>
+        <v>0.25</v>
       </c>
       <c r="E34" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1920,16 +1932,16 @@
         <v>0</v>
       </c>
       <c r="C35">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D35">
-        <v>8.7100000000000009</v>
+        <v>0.25</v>
       </c>
       <c r="E35" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1937,16 +1949,16 @@
         <v>0</v>
       </c>
       <c r="C36">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D36">
-        <v>8.68</v>
+        <v>0.25</v>
       </c>
       <c r="E36" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1954,16 +1966,16 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D37">
-        <v>8.69</v>
+        <v>0.25</v>
       </c>
       <c r="E37" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1971,16 +1983,16 @@
         <v>0</v>
       </c>
       <c r="C38">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D38">
-        <v>8.76</v>
+        <v>0.25</v>
       </c>
       <c r="E38" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1988,16 +2000,16 @@
         <v>0</v>
       </c>
       <c r="C39">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D39">
-        <v>8.61</v>
+        <v>0.25</v>
       </c>
       <c r="E39" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2005,16 +2017,16 @@
         <v>0</v>
       </c>
       <c r="C40">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D40">
-        <v>8.5399999999999991</v>
+        <v>0.25</v>
       </c>
       <c r="E40" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2022,16 +2034,16 @@
         <v>0</v>
       </c>
       <c r="C41">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D41">
-        <v>8.5399999999999991</v>
+        <v>0.25</v>
       </c>
       <c r="E41" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2039,16 +2051,16 @@
         <v>0</v>
       </c>
       <c r="C42">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D42">
-        <v>8.44</v>
+        <v>0.25</v>
       </c>
       <c r="E42" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2056,16 +2068,16 @@
         <v>0</v>
       </c>
       <c r="C43">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D43">
-        <v>8.64</v>
+        <v>0.25</v>
       </c>
       <c r="E43" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2073,16 +2085,16 @@
         <v>0</v>
       </c>
       <c r="C44">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D44">
-        <v>8.61</v>
+        <v>0.25</v>
       </c>
       <c r="E44" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2090,16 +2102,16 @@
         <v>0</v>
       </c>
       <c r="C45">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D45">
-        <v>8.59</v>
+        <v>0.25</v>
       </c>
       <c r="E45" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2107,16 +2119,16 @@
         <v>0</v>
       </c>
       <c r="C46">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D46">
-        <v>8.64</v>
+        <v>0.25</v>
       </c>
       <c r="E46" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2124,16 +2136,16 @@
         <v>0</v>
       </c>
       <c r="C47">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D47">
-        <v>8.64</v>
+        <v>0.25</v>
       </c>
       <c r="E47" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2141,16 +2153,16 @@
         <v>0</v>
       </c>
       <c r="C48">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D48">
-        <v>8.6300000000000008</v>
+        <v>0.25</v>
       </c>
       <c r="E48" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2158,16 +2170,16 @@
         <v>0</v>
       </c>
       <c r="C49">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D49">
-        <v>8.66</v>
+        <v>0.25</v>
       </c>
       <c r="E49" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2175,16 +2187,16 @@
         <v>0</v>
       </c>
       <c r="C50">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D50">
-        <v>8.49</v>
+        <v>0.25</v>
       </c>
       <c r="E50" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2192,16 +2204,16 @@
         <v>0</v>
       </c>
       <c r="C51">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D51">
-        <v>8.5399999999999991</v>
+        <v>0.25</v>
       </c>
       <c r="E51" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2209,16 +2221,16 @@
         <v>0</v>
       </c>
       <c r="C52">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D52">
-        <v>8.5399999999999991</v>
+        <v>0.25</v>
       </c>
       <c r="E52" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2226,16 +2238,16 @@
         <v>0</v>
       </c>
       <c r="C53">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D53">
-        <v>8.5399999999999991</v>
+        <v>0.25</v>
       </c>
       <c r="E53" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2243,16 +2255,16 @@
         <v>0</v>
       </c>
       <c r="C54">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D54">
-        <v>8.5399999999999991</v>
+        <v>0.25</v>
       </c>
       <c r="E54" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2260,16 +2272,16 @@
         <v>0</v>
       </c>
       <c r="C55">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D55">
-        <v>8.57</v>
+        <v>0.25</v>
       </c>
       <c r="E55" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2277,16 +2289,16 @@
         <v>0</v>
       </c>
       <c r="C56">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D56">
-        <v>8.64</v>
+        <v>0.25</v>
       </c>
       <c r="E56" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2294,16 +2306,16 @@
         <v>0</v>
       </c>
       <c r="C57">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D57">
-        <v>8.5399999999999991</v>
+        <v>0.25</v>
       </c>
       <c r="E57" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2311,16 +2323,16 @@
         <v>0</v>
       </c>
       <c r="C58">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D58">
-        <v>8.61</v>
+        <v>0.25</v>
       </c>
       <c r="E58" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2328,16 +2340,16 @@
         <v>0</v>
       </c>
       <c r="C59">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D59">
-        <v>8.61</v>
+        <v>0.25</v>
       </c>
       <c r="E59" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2345,16 +2357,16 @@
         <v>0</v>
       </c>
       <c r="C60">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D60">
-        <v>8.58</v>
+        <v>0.25</v>
       </c>
       <c r="E60" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2362,16 +2374,16 @@
         <v>0</v>
       </c>
       <c r="C61">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D61">
-        <v>8.56</v>
+        <v>0.25</v>
       </c>
       <c r="E61" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2379,16 +2391,16 @@
         <v>0</v>
       </c>
       <c r="C62">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D62">
-        <v>8.5500000000000007</v>
+        <v>0.25</v>
       </c>
       <c r="E62" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2396,16 +2408,16 @@
         <v>0</v>
       </c>
       <c r="C63">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D63">
-        <v>8.6199999999999992</v>
+        <v>0.25</v>
       </c>
       <c r="E63" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2413,16 +2425,16 @@
         <v>0</v>
       </c>
       <c r="C64">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D64">
-        <v>8.6199999999999992</v>
+        <v>0.25</v>
       </c>
       <c r="E64" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2430,16 +2442,16 @@
         <v>0</v>
       </c>
       <c r="C65">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D65">
-        <v>8.6199999999999992</v>
+        <v>0.25</v>
       </c>
       <c r="E65" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2447,16 +2459,16 @@
         <v>0</v>
       </c>
       <c r="C66">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D66">
-        <v>8.6300000000000008</v>
+        <v>0.25</v>
       </c>
       <c r="E66" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2464,16 +2476,16 @@
         <v>0</v>
       </c>
       <c r="C67">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D67">
-        <v>8.69</v>
+        <v>0.25</v>
       </c>
       <c r="E67" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2481,16 +2493,16 @@
         <v>0</v>
       </c>
       <c r="C68">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D68">
-        <v>8.68</v>
+        <v>0.25</v>
       </c>
       <c r="E68" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2498,16 +2510,16 @@
         <v>0</v>
       </c>
       <c r="C69">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D69">
-        <v>8.73</v>
+        <v>0.25</v>
       </c>
       <c r="E69" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2515,16 +2527,16 @@
         <v>0</v>
       </c>
       <c r="C70">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D70">
-        <v>8.64</v>
+        <v>0.25</v>
       </c>
       <c r="E70" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2532,16 +2544,16 @@
         <v>0</v>
       </c>
       <c r="C71">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D71">
-        <v>8.64</v>
+        <v>0.25</v>
       </c>
       <c r="E71" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2549,16 +2561,16 @@
         <v>0</v>
       </c>
       <c r="C72">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D72">
-        <v>8.6999999999999993</v>
+        <v>0.25</v>
       </c>
       <c r="E72" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2566,16 +2578,16 @@
         <v>0</v>
       </c>
       <c r="C73">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D73">
-        <v>8.61</v>
+        <v>0.25</v>
       </c>
       <c r="E73" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>73</v>
       </c>
@@ -2583,16 +2595,16 @@
         <v>0</v>
       </c>
       <c r="C74">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D74">
-        <v>8.65</v>
+        <v>0.25</v>
       </c>
       <c r="E74" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>74</v>
       </c>
@@ -2600,16 +2612,16 @@
         <v>0</v>
       </c>
       <c r="C75">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D75">
-        <v>8.49</v>
+        <v>0.25</v>
       </c>
       <c r="E75" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>75</v>
       </c>
@@ -2617,16 +2629,16 @@
         <v>0</v>
       </c>
       <c r="C76">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D76">
-        <v>8.57</v>
+        <v>0.25</v>
       </c>
       <c r="E76" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>76</v>
       </c>
@@ -2634,16 +2646,16 @@
         <v>0</v>
       </c>
       <c r="C77">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D77">
-        <v>8.57</v>
+        <v>0.25</v>
       </c>
       <c r="E77" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>77</v>
       </c>
@@ -2651,16 +2663,16 @@
         <v>0</v>
       </c>
       <c r="C78">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D78">
-        <v>8.59</v>
+        <v>0.25</v>
       </c>
       <c r="E78" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>78</v>
       </c>
@@ -2668,16 +2680,16 @@
         <v>0</v>
       </c>
       <c r="C79">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D79">
-        <v>8.64</v>
+        <v>0.25</v>
       </c>
       <c r="E79" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>79</v>
       </c>
@@ -2685,16 +2697,16 @@
         <v>0</v>
       </c>
       <c r="C80">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D80">
-        <v>8.59</v>
+        <v>0.25</v>
       </c>
       <c r="E80" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A81">
         <v>80</v>
       </c>
@@ -2702,16 +2714,16 @@
         <v>0</v>
       </c>
       <c r="C81">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D81">
-        <v>8.61</v>
+        <v>0.25</v>
       </c>
       <c r="E81" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A82">
         <v>81</v>
       </c>
@@ -2719,16 +2731,16 @@
         <v>0</v>
       </c>
       <c r="C82">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D82">
-        <v>8.59</v>
+        <v>0.25</v>
       </c>
       <c r="E82" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A83">
         <v>82</v>
       </c>
@@ -2736,16 +2748,16 @@
         <v>0</v>
       </c>
       <c r="C83">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D83">
-        <v>8.59</v>
+        <v>0.25</v>
       </c>
       <c r="E83" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A84">
         <v>83</v>
       </c>
@@ -2753,16 +2765,16 @@
         <v>0</v>
       </c>
       <c r="C84">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D84">
-        <v>8.59</v>
+        <v>0.25</v>
       </c>
       <c r="E84" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A85">
         <v>84</v>
       </c>
@@ -2770,16 +2782,16 @@
         <v>0</v>
       </c>
       <c r="C85">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D85">
-        <v>8.58</v>
+        <v>0.25</v>
       </c>
       <c r="E85" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A86">
         <v>85</v>
       </c>
@@ -2787,16 +2799,16 @@
         <v>0</v>
       </c>
       <c r="C86">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D86">
-        <v>8.57</v>
+        <v>0.25</v>
       </c>
       <c r="E86" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A87">
         <v>86</v>
       </c>
@@ -2804,16 +2816,16 @@
         <v>0</v>
       </c>
       <c r="C87">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D87">
-        <v>8.5399999999999991</v>
+        <v>0.25</v>
       </c>
       <c r="E87" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A88">
         <v>87</v>
       </c>
@@ -2821,16 +2833,16 @@
         <v>0</v>
       </c>
       <c r="C88">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D88">
-        <v>8.6300000000000008</v>
+        <v>0.25</v>
       </c>
       <c r="E88" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A89">
         <v>88</v>
       </c>
@@ -2838,16 +2850,16 @@
         <v>0</v>
       </c>
       <c r="C89">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D89">
-        <v>8.6300000000000008</v>
+        <v>0.25</v>
       </c>
       <c r="E89" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A90">
         <v>89</v>
       </c>
@@ -2855,16 +2867,16 @@
         <v>0</v>
       </c>
       <c r="C90">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D90">
-        <v>8.6300000000000008</v>
+        <v>0.25</v>
       </c>
       <c r="E90" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A91">
         <v>90</v>
       </c>
@@ -2872,16 +2884,16 @@
         <v>0</v>
       </c>
       <c r="C91">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D91">
-        <v>8.7100000000000009</v>
+        <v>0.25</v>
       </c>
       <c r="E91" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A92">
         <v>91</v>
       </c>
@@ -2889,16 +2901,16 @@
         <v>0</v>
       </c>
       <c r="C92">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D92">
-        <v>8.66</v>
+        <v>0.25</v>
       </c>
       <c r="E92" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A93">
         <v>92</v>
       </c>
@@ -2906,16 +2918,16 @@
         <v>0</v>
       </c>
       <c r="C93">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D93">
-        <v>8.6300000000000008</v>
+        <v>0.25</v>
       </c>
       <c r="E93" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A94">
         <v>93</v>
       </c>
@@ -2923,16 +2935,16 @@
         <v>0</v>
       </c>
       <c r="C94">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D94">
-        <v>8.73</v>
+        <v>0.25</v>
       </c>
       <c r="E94" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A95">
         <v>94</v>
       </c>
@@ -2940,16 +2952,16 @@
         <v>0</v>
       </c>
       <c r="C95">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D95">
-        <v>8.73</v>
+        <v>0.25</v>
       </c>
       <c r="E95" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A96">
         <v>95</v>
       </c>
@@ -2957,16 +2969,16 @@
         <v>0</v>
       </c>
       <c r="C96">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D96">
-        <v>8.7200000000000006</v>
+        <v>0.25</v>
       </c>
       <c r="E96" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A97">
         <v>96</v>
       </c>
@@ -2974,16 +2986,16 @@
         <v>0</v>
       </c>
       <c r="C97">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D97">
-        <v>8.6999999999999993</v>
+        <v>0.25</v>
       </c>
       <c r="E97" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A98">
         <v>97</v>
       </c>
@@ -2991,16 +3003,16 @@
         <v>0</v>
       </c>
       <c r="C98">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D98">
-        <v>8.7100000000000009</v>
+        <v>0.25</v>
       </c>
       <c r="E98" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A99">
         <v>98</v>
       </c>
@@ -3008,16 +3020,16 @@
         <v>0</v>
       </c>
       <c r="C99">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D99">
-        <v>8.67</v>
+        <v>0.25</v>
       </c>
       <c r="E99" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A100">
         <v>99</v>
       </c>
@@ -3025,16 +3037,16 @@
         <v>0</v>
       </c>
       <c r="C100">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D100">
-        <v>8.65</v>
+        <v>0.25</v>
       </c>
       <c r="E100" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A101">
         <v>100</v>
       </c>
@@ -3042,16 +3054,16 @@
         <v>0</v>
       </c>
       <c r="C101">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D101">
-        <v>8.65</v>
+        <v>0.25</v>
       </c>
       <c r="E101" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A102">
         <v>101</v>
       </c>
@@ -3059,16 +3071,16 @@
         <v>0</v>
       </c>
       <c r="C102">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D102">
-        <v>8.6999999999999993</v>
+        <v>0.25</v>
       </c>
       <c r="E102" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A103">
         <v>102</v>
       </c>
@@ -3076,16 +3088,16 @@
         <v>0</v>
       </c>
       <c r="C103">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D103">
-        <v>8.7899999999999991</v>
+        <v>0.25</v>
       </c>
       <c r="E103" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A104">
         <v>103</v>
       </c>
@@ -3093,16 +3105,16 @@
         <v>0</v>
       </c>
       <c r="C104">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D104">
-        <v>8.83</v>
+        <v>0.25</v>
       </c>
       <c r="E104" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A105">
         <v>104</v>
       </c>
@@ -3110,16 +3122,16 @@
         <v>0</v>
       </c>
       <c r="C105">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D105">
-        <v>8.76</v>
+        <v>0.25</v>
       </c>
       <c r="E105" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A106">
         <v>105</v>
       </c>
@@ -3127,16 +3139,16 @@
         <v>0</v>
       </c>
       <c r="C106">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D106">
-        <v>8.76</v>
+        <v>0.25</v>
       </c>
       <c r="E106" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A107">
         <v>106</v>
       </c>
@@ -3144,16 +3156,16 @@
         <v>0</v>
       </c>
       <c r="C107">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D107">
-        <v>8.76</v>
+        <v>0.25</v>
       </c>
       <c r="E107" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A108">
         <v>107</v>
       </c>
@@ -3161,16 +3173,16 @@
         <v>0</v>
       </c>
       <c r="C108">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D108">
-        <v>8.7799999999999994</v>
+        <v>0.25</v>
       </c>
       <c r="E108" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A109">
         <v>108</v>
       </c>
@@ -3178,16 +3190,16 @@
         <v>0</v>
       </c>
       <c r="C109">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D109">
-        <v>8.75</v>
+        <v>0.25</v>
       </c>
       <c r="E109" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A110">
         <v>109</v>
       </c>
@@ -3195,16 +3207,16 @@
         <v>0</v>
       </c>
       <c r="C110">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D110">
-        <v>8.75</v>
+        <v>0.25</v>
       </c>
       <c r="E110" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A111">
         <v>110</v>
       </c>
@@ -3212,16 +3224,16 @@
         <v>0</v>
       </c>
       <c r="C111">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D111">
-        <v>8.7200000000000006</v>
+        <v>0.25</v>
       </c>
       <c r="E111" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A112">
         <v>111</v>
       </c>
@@ -3229,16 +3241,16 @@
         <v>0</v>
       </c>
       <c r="C112">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D112">
-        <v>8.65</v>
+        <v>0.25</v>
       </c>
       <c r="E112" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A113">
         <v>112</v>
       </c>
@@ -3246,16 +3258,16 @@
         <v>0</v>
       </c>
       <c r="C113">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D113">
-        <v>8.65</v>
+        <v>0.25</v>
       </c>
       <c r="E113" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A114">
         <v>113</v>
       </c>
@@ -3263,16 +3275,16 @@
         <v>0</v>
       </c>
       <c r="C114">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D114">
-        <v>8.65</v>
+        <v>0.25</v>
       </c>
       <c r="E114" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A115">
         <v>114</v>
       </c>
@@ -3280,16 +3292,16 @@
         <v>0</v>
       </c>
       <c r="C115">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D115">
-        <v>8.6199999999999992</v>
+        <v>0.25</v>
       </c>
       <c r="E115" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A116">
         <v>115</v>
       </c>
@@ -3297,16 +3309,16 @@
         <v>0</v>
       </c>
       <c r="C116">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D116">
-        <v>8.66</v>
+        <v>0.25</v>
       </c>
       <c r="E116" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A117">
         <v>116</v>
       </c>
@@ -3314,16 +3326,16 @@
         <v>0</v>
       </c>
       <c r="C117">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D117">
-        <v>8.66</v>
+        <v>0.25</v>
       </c>
       <c r="E117" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A118">
         <v>117</v>
       </c>
@@ -3331,16 +3343,16 @@
         <v>0</v>
       </c>
       <c r="C118">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D118">
-        <v>8.6</v>
+        <v>0.25</v>
       </c>
       <c r="E118" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A119">
         <v>118</v>
       </c>
@@ -3348,16 +3360,16 @@
         <v>0</v>
       </c>
       <c r="C119">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D119">
-        <v>8.69</v>
+        <v>0.25</v>
       </c>
       <c r="E119" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A120">
         <v>119</v>
       </c>
@@ -3365,16 +3377,16 @@
         <v>0</v>
       </c>
       <c r="C120">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D120">
-        <v>8.7200000000000006</v>
+        <v>0.25</v>
       </c>
       <c r="E120" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A121">
         <v>120</v>
       </c>
@@ -3382,16 +3394,16 @@
         <v>0</v>
       </c>
       <c r="C121">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D121">
-        <v>8.66</v>
+        <v>0.25</v>
       </c>
       <c r="E121" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A122">
         <v>121</v>
       </c>
@@ -3399,16 +3411,16 @@
         <v>0</v>
       </c>
       <c r="C122">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D122">
-        <v>8.65</v>
+        <v>0.25</v>
       </c>
       <c r="E122" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A123">
         <v>122</v>
       </c>
@@ -3416,16 +3428,16 @@
         <v>0</v>
       </c>
       <c r="C123">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D123">
-        <v>8.7200000000000006</v>
+        <v>0.25</v>
       </c>
       <c r="E123" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A124">
         <v>123</v>
       </c>
@@ -3433,16 +3445,16 @@
         <v>0</v>
       </c>
       <c r="C124">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D124">
-        <v>8.73</v>
+        <v>0.25</v>
       </c>
       <c r="E124" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A125">
         <v>124</v>
       </c>
@@ -3450,16 +3462,16 @@
         <v>0</v>
       </c>
       <c r="C125">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D125">
-        <v>8.73</v>
+        <v>0.25</v>
       </c>
       <c r="E125" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A126">
         <v>125</v>
       </c>
@@ -3467,16 +3479,16 @@
         <v>0</v>
       </c>
       <c r="C126">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D126">
-        <v>8.73</v>
+        <v>0.25</v>
       </c>
       <c r="E126" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A127">
         <v>126</v>
       </c>
@@ -3484,16 +3496,16 @@
         <v>0</v>
       </c>
       <c r="C127">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D127">
-        <v>8.8000000000000007</v>
+        <v>0.25</v>
       </c>
       <c r="E127" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A128">
         <v>127</v>
       </c>
@@ -3501,16 +3513,16 @@
         <v>0</v>
       </c>
       <c r="C128">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D128">
-        <v>8.77</v>
+        <v>0.25</v>
       </c>
       <c r="E128" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A129">
         <v>128</v>
       </c>
@@ -3518,16 +3530,16 @@
         <v>0</v>
       </c>
       <c r="C129">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D129">
-        <v>8.75</v>
+        <v>0.25</v>
       </c>
       <c r="E129" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A130">
         <v>129</v>
       </c>
@@ -3535,16 +3547,16 @@
         <v>0</v>
       </c>
       <c r="C130">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D130">
-        <v>8.77</v>
+        <v>0.25</v>
       </c>
       <c r="E130" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A131">
         <v>130</v>
       </c>
@@ -3552,16 +3564,16 @@
         <v>0</v>
       </c>
       <c r="C131">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D131">
-        <v>8.77</v>
+        <v>0.25</v>
       </c>
       <c r="E131" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A132">
         <v>131</v>
       </c>
@@ -3569,16 +3581,16 @@
         <v>0</v>
       </c>
       <c r="C132">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D132">
-        <v>8.76</v>
+        <v>0.25</v>
       </c>
       <c r="E132" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A133">
         <v>132</v>
       </c>
@@ -3586,16 +3598,16 @@
         <v>0</v>
       </c>
       <c r="C133">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D133">
-        <v>8.76</v>
+        <v>0.25</v>
       </c>
       <c r="E133" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A134">
         <v>133</v>
       </c>
@@ -3603,16 +3615,16 @@
         <v>0</v>
       </c>
       <c r="C134">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D134">
-        <v>8.73</v>
+        <v>0.25</v>
       </c>
       <c r="E134" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A135">
         <v>134</v>
       </c>
@@ -3620,16 +3632,16 @@
         <v>0</v>
       </c>
       <c r="C135">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D135">
-        <v>8.6999999999999993</v>
+        <v>0.25</v>
       </c>
       <c r="E135" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A136">
         <v>135</v>
       </c>
@@ -3637,16 +3649,16 @@
         <v>0</v>
       </c>
       <c r="C136">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D136">
-        <v>8.76</v>
+        <v>0.25</v>
       </c>
       <c r="E136" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A137">
         <v>136</v>
       </c>
@@ -3654,16 +3666,16 @@
         <v>0</v>
       </c>
       <c r="C137">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D137">
-        <v>8.76</v>
+        <v>0.25</v>
       </c>
       <c r="E137" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A138">
         <v>137</v>
       </c>
@@ -3671,16 +3683,16 @@
         <v>0</v>
       </c>
       <c r="C138">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D138">
-        <v>8.74</v>
+        <v>0.25</v>
       </c>
       <c r="E138" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A139">
         <v>138</v>
       </c>
@@ -3688,16 +3700,16 @@
         <v>0</v>
       </c>
       <c r="C139">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D139">
-        <v>8.7200000000000006</v>
+        <v>0.25</v>
       </c>
       <c r="E139" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A140">
         <v>139</v>
       </c>
@@ -3705,16 +3717,16 @@
         <v>0</v>
       </c>
       <c r="C140">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D140">
-        <v>8.74</v>
+        <v>0.25</v>
       </c>
       <c r="E140" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A141">
         <v>140</v>
       </c>
@@ -3722,16 +3734,16 @@
         <v>0</v>
       </c>
       <c r="C141">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D141">
-        <v>8.7200000000000006</v>
+        <v>0.25</v>
       </c>
       <c r="E141" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A142">
         <v>141</v>
       </c>
@@ -3739,16 +3751,16 @@
         <v>0</v>
       </c>
       <c r="C142">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D142">
-        <v>8.7200000000000006</v>
+        <v>0.25</v>
       </c>
       <c r="E142" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A143">
         <v>142</v>
       </c>
@@ -3756,16 +3768,16 @@
         <v>0</v>
       </c>
       <c r="C143">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D143">
-        <v>8.7200000000000006</v>
+        <v>0.25</v>
       </c>
       <c r="E143" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A144">
         <v>143</v>
       </c>
@@ -3773,16 +3785,16 @@
         <v>0</v>
       </c>
       <c r="C144">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D144">
-        <v>8.69</v>
+        <v>0.25</v>
       </c>
       <c r="E144" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A145">
         <v>144</v>
       </c>
@@ -3790,16 +3802,16 @@
         <v>0</v>
       </c>
       <c r="C145">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D145">
-        <v>8.69</v>
+        <v>0.25</v>
       </c>
       <c r="E145" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A146">
         <v>145</v>
       </c>
@@ -3807,16 +3819,16 @@
         <v>0</v>
       </c>
       <c r="C146">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D146">
-        <v>8.67</v>
+        <v>0.25</v>
       </c>
       <c r="E146" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A147">
         <v>146</v>
       </c>
@@ -3824,16 +3836,16 @@
         <v>0</v>
       </c>
       <c r="C147">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D147">
-        <v>8.68</v>
+        <v>0.25</v>
       </c>
       <c r="E147" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A148">
         <v>147</v>
       </c>
@@ -3841,16 +3853,16 @@
         <v>0</v>
       </c>
       <c r="C148">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D148">
-        <v>8.6300000000000008</v>
+        <v>0.25</v>
       </c>
       <c r="E148" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A149">
         <v>148</v>
       </c>
@@ -3858,16 +3870,16 @@
         <v>0</v>
       </c>
       <c r="C149">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D149">
-        <v>8.6300000000000008</v>
+        <v>0.25</v>
       </c>
       <c r="E149" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A150">
         <v>149</v>
       </c>
@@ -3875,16 +3887,16 @@
         <v>0</v>
       </c>
       <c r="C150">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D150">
-        <v>8.61</v>
+        <v>0.25</v>
       </c>
       <c r="E150" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A151">
         <v>150</v>
       </c>
@@ -3892,16 +3904,16 @@
         <v>0</v>
       </c>
       <c r="C151">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D151">
-        <v>8.61</v>
+        <v>0.25</v>
       </c>
       <c r="E151" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A152">
         <v>151</v>
       </c>
@@ -3909,16 +3921,16 @@
         <v>0</v>
       </c>
       <c r="C152">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D152">
-        <v>8.67</v>
+        <v>0.25</v>
       </c>
       <c r="E152" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A153">
         <v>152</v>
       </c>
@@ -3926,16 +3938,16 @@
         <v>0</v>
       </c>
       <c r="C153">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D153">
-        <v>8.67</v>
+        <v>0.25</v>
       </c>
       <c r="E153" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A154">
         <v>153</v>
       </c>
@@ -3943,16 +3955,16 @@
         <v>0</v>
       </c>
       <c r="C154">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D154">
-        <v>8.75</v>
+        <v>0.25</v>
       </c>
       <c r="E154" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A155">
         <v>154</v>
       </c>
@@ -3960,16 +3972,16 @@
         <v>0</v>
       </c>
       <c r="C155">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D155">
-        <v>8.75</v>
+        <v>0.25</v>
       </c>
       <c r="E155" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A156">
         <v>155</v>
       </c>
@@ -3977,16 +3989,16 @@
         <v>0</v>
       </c>
       <c r="C156">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D156">
-        <v>8.76</v>
+        <v>0.25</v>
       </c>
       <c r="E156" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A157">
         <v>156</v>
       </c>
@@ -3994,16 +4006,16 @@
         <v>0</v>
       </c>
       <c r="C157">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D157">
-        <v>8.74</v>
+        <v>0.25</v>
       </c>
       <c r="E157" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A158">
         <v>157</v>
       </c>
@@ -4011,16 +4023,16 @@
         <v>0</v>
       </c>
       <c r="C158">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D158">
-        <v>8.74</v>
+        <v>0.25</v>
       </c>
       <c r="E158" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A159">
         <v>158</v>
       </c>
@@ -4028,16 +4040,16 @@
         <v>0</v>
       </c>
       <c r="C159">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D159">
-        <v>8.68</v>
+        <v>0.25</v>
       </c>
       <c r="E159" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A160">
         <v>159</v>
       </c>
@@ -4045,16 +4057,16 @@
         <v>0</v>
       </c>
       <c r="C160">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D160">
-        <v>8.7899999999999991</v>
+        <v>0.25</v>
       </c>
       <c r="E160" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A161">
         <v>160</v>
       </c>
@@ -4062,16 +4074,16 @@
         <v>0</v>
       </c>
       <c r="C161">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D161">
-        <v>8.7899999999999991</v>
+        <v>0.25</v>
       </c>
       <c r="E161" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A162">
         <v>161</v>
       </c>
@@ -4079,16 +4091,16 @@
         <v>0</v>
       </c>
       <c r="C162">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D162">
-        <v>8.7100000000000009</v>
+        <v>0.25</v>
       </c>
       <c r="E162" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A163">
         <v>162</v>
       </c>
@@ -4096,16 +4108,16 @@
         <v>0</v>
       </c>
       <c r="C163">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D163">
-        <v>8.6999999999999993</v>
+        <v>0.25</v>
       </c>
       <c r="E163" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A164">
         <v>163</v>
       </c>
@@ -4113,16 +4125,16 @@
         <v>0</v>
       </c>
       <c r="C164">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D164">
-        <v>8.76</v>
+        <v>0.25</v>
       </c>
       <c r="E164" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A165">
         <v>164</v>
       </c>
@@ -4130,16 +4142,16 @@
         <v>0</v>
       </c>
       <c r="C165">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D165">
-        <v>8.73</v>
+        <v>0.25</v>
       </c>
       <c r="E165" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A166">
         <v>165</v>
       </c>
@@ -4147,16 +4159,16 @@
         <v>0</v>
       </c>
       <c r="C166">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D166">
-        <v>8.6999999999999993</v>
+        <v>0.25</v>
       </c>
       <c r="E166" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A167">
         <v>166</v>
       </c>
@@ -4164,16 +4176,16 @@
         <v>0</v>
       </c>
       <c r="C167">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D167">
-        <v>8.6999999999999993</v>
+        <v>0.25</v>
       </c>
       <c r="E167" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A168">
         <v>167</v>
       </c>
@@ -4181,16 +4193,16 @@
         <v>0</v>
       </c>
       <c r="C168">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D168">
-        <v>8.7200000000000006</v>
+        <v>0.25</v>
       </c>
       <c r="E168" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A169">
         <v>168</v>
       </c>
@@ -4198,16 +4210,16 @@
         <v>0</v>
       </c>
       <c r="C169">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D169">
-        <v>8.7200000000000006</v>
+        <v>0.25</v>
       </c>
       <c r="E169" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A170">
         <v>169</v>
       </c>
@@ -4215,16 +4227,16 @@
         <v>0</v>
       </c>
       <c r="C170">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D170">
-        <v>8.69</v>
+        <v>0.25</v>
       </c>
       <c r="E170" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A171">
         <v>170</v>
       </c>
@@ -4232,16 +4244,16 @@
         <v>0</v>
       </c>
       <c r="C171">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D171">
-        <v>8.66</v>
+        <v>0.25</v>
       </c>
       <c r="E171" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A172">
         <v>171</v>
       </c>
@@ -4249,16 +4261,16 @@
         <v>0</v>
       </c>
       <c r="C172">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D172">
-        <v>8.73</v>
+        <v>0.25</v>
       </c>
       <c r="E172" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A173">
         <v>172</v>
       </c>
@@ -4266,16 +4278,16 @@
         <v>0</v>
       </c>
       <c r="C173">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D173">
-        <v>8.73</v>
+        <v>0.25</v>
       </c>
       <c r="E173" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A174">
         <v>173</v>
       </c>
@@ -4283,16 +4295,16 @@
         <v>0</v>
       </c>
       <c r="C174">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D174">
-        <v>8.76</v>
+        <v>0.25</v>
       </c>
       <c r="E174" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A175">
         <v>174</v>
       </c>
@@ -4300,16 +4312,16 @@
         <v>0</v>
       </c>
       <c r="C175">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D175">
-        <v>8.75</v>
+        <v>0.25</v>
       </c>
       <c r="E175" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A176">
         <v>175</v>
       </c>
@@ -4317,16 +4329,16 @@
         <v>0</v>
       </c>
       <c r="C176">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D176">
-        <v>8.75</v>
+        <v>0.25</v>
       </c>
       <c r="E176" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A177">
         <v>176</v>
       </c>
@@ -4334,16 +4346,16 @@
         <v>0</v>
       </c>
       <c r="C177">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D177">
-        <v>8.85</v>
+        <v>0.25</v>
       </c>
       <c r="E177" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A178">
         <v>177</v>
       </c>
@@ -4351,16 +4363,16 @@
         <v>0</v>
       </c>
       <c r="C178">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D178">
-        <v>8.93</v>
+        <v>0.25</v>
       </c>
       <c r="E178" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A179">
         <v>178</v>
       </c>
@@ -4368,16 +4380,16 @@
         <v>0</v>
       </c>
       <c r="C179">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D179">
-        <v>8.93</v>
+        <v>0.25</v>
       </c>
       <c r="E179" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A180">
         <v>179</v>
       </c>
@@ -4385,16 +4397,16 @@
         <v>0</v>
       </c>
       <c r="C180">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D180">
-        <v>8.9499999999999993</v>
+        <v>0.25</v>
       </c>
       <c r="E180" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A181">
         <v>180</v>
       </c>
@@ -4402,16 +4414,16 @@
         <v>0</v>
       </c>
       <c r="C181">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D181">
-        <v>9</v>
+        <v>0.25</v>
       </c>
       <c r="E181" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A182">
         <v>181</v>
       </c>
@@ -4419,16 +4431,16 @@
         <v>0</v>
       </c>
       <c r="C182">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D182">
-        <v>8.77</v>
+        <v>0.25</v>
       </c>
       <c r="E182" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A183">
         <v>182</v>
       </c>
@@ -4436,16 +4448,16 @@
         <v>0</v>
       </c>
       <c r="C183">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D183">
-        <v>8.67</v>
+        <v>0.25</v>
       </c>
       <c r="E183" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A184">
         <v>183</v>
       </c>
@@ -4453,16 +4465,16 @@
         <v>0</v>
       </c>
       <c r="C184">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D184">
-        <v>8.74</v>
+        <v>0.25</v>
       </c>
       <c r="E184" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A185">
         <v>184</v>
       </c>
@@ -4470,16 +4482,16 @@
         <v>0</v>
       </c>
       <c r="C185">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D185">
-        <v>8.74</v>
+        <v>0.25</v>
       </c>
       <c r="E185" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A186">
         <v>185</v>
       </c>
@@ -4487,16 +4499,16 @@
         <v>0</v>
       </c>
       <c r="C186">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D186">
-        <v>8.68</v>
+        <v>0.25</v>
       </c>
       <c r="E186" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A187">
         <v>186</v>
       </c>
@@ -4504,16 +4516,16 @@
         <v>0</v>
       </c>
       <c r="C187">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D187">
-        <v>8.69</v>
+        <v>0.25</v>
       </c>
       <c r="E187" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A188">
         <v>187</v>
       </c>
@@ -4521,16 +4533,16 @@
         <v>0</v>
       </c>
       <c r="C188">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D188">
-        <v>8.68</v>
+        <v>0.25</v>
       </c>
       <c r="E188" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A189">
         <v>188</v>
       </c>
@@ -4538,16 +4550,16 @@
         <v>0</v>
       </c>
       <c r="C189">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D189">
-        <v>8.6999999999999993</v>
+        <v>0.25</v>
       </c>
       <c r="E189" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A190">
         <v>189</v>
       </c>
@@ -4555,16 +4567,16 @@
         <v>0</v>
       </c>
       <c r="C190">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D190">
-        <v>8.6999999999999993</v>
+        <v>0.25</v>
       </c>
       <c r="E190" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A191">
         <v>190</v>
       </c>
@@ -4572,16 +4584,16 @@
         <v>0</v>
       </c>
       <c r="C191">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D191">
-        <v>8.6999999999999993</v>
+        <v>0.25</v>
       </c>
       <c r="E191" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A192">
         <v>191</v>
       </c>
@@ -4589,16 +4601,16 @@
         <v>0</v>
       </c>
       <c r="C192">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D192">
-        <v>8.6999999999999993</v>
+        <v>0.25</v>
       </c>
       <c r="E192" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A193">
         <v>192</v>
       </c>
@@ -4606,16 +4618,16 @@
         <v>0</v>
       </c>
       <c r="C193">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D193">
-        <v>8.7100000000000009</v>
+        <v>0.25</v>
       </c>
       <c r="E193" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A194">
         <v>193</v>
       </c>
@@ -4623,16 +4635,16 @@
         <v>0</v>
       </c>
       <c r="C194">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D194">
-        <v>8.7100000000000009</v>
+        <v>0.25</v>
       </c>
       <c r="E194" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A195">
         <v>194</v>
       </c>
@@ -4640,16 +4652,16 @@
         <v>0</v>
       </c>
       <c r="C195">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D195">
-        <v>8.66</v>
+        <v>0.25</v>
       </c>
       <c r="E195" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A196">
         <v>195</v>
       </c>
@@ -4657,16 +4669,16 @@
         <v>0</v>
       </c>
       <c r="C196">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D196">
-        <v>8.6199999999999992</v>
+        <v>0.25</v>
       </c>
       <c r="E196" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A197">
         <v>196</v>
       </c>
@@ -4674,16 +4686,16 @@
         <v>0</v>
       </c>
       <c r="C197">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D197">
-        <v>8.6199999999999992</v>
+        <v>0.25</v>
       </c>
       <c r="E197" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A198">
         <v>197</v>
       </c>
@@ -4691,16 +4703,16 @@
         <v>0</v>
       </c>
       <c r="C198">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D198">
-        <v>8.6199999999999992</v>
+        <v>0.25</v>
       </c>
       <c r="E198" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A199">
         <v>198</v>
       </c>
@@ -4708,16 +4720,16 @@
         <v>0</v>
       </c>
       <c r="C199">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D199">
-        <v>8.69</v>
+        <v>0.25</v>
       </c>
       <c r="E199" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A200">
         <v>199</v>
       </c>
@@ -4725,16 +4737,16 @@
         <v>0</v>
       </c>
       <c r="C200">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D200">
-        <v>8.6999999999999993</v>
+        <v>0.25</v>
       </c>
       <c r="E200" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A201">
         <v>200</v>
       </c>
@@ -4742,16 +4754,16 @@
         <v>0</v>
       </c>
       <c r="C201">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D201">
-        <v>8.74</v>
+        <v>0.25</v>
       </c>
       <c r="E201" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A202">
         <v>201</v>
       </c>
@@ -4759,16 +4771,16 @@
         <v>0</v>
       </c>
       <c r="C202">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D202">
-        <v>8.7200000000000006</v>
+        <v>0.25</v>
       </c>
       <c r="E202" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A203">
         <v>202</v>
       </c>
@@ -4776,16 +4788,16 @@
         <v>0</v>
       </c>
       <c r="C203">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D203">
-        <v>8.75</v>
+        <v>0.25</v>
       </c>
       <c r="E203" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A204">
         <v>203</v>
       </c>
@@ -4793,16 +4805,16 @@
         <v>0</v>
       </c>
       <c r="C204">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D204">
-        <v>8.74</v>
+        <v>0.25</v>
       </c>
       <c r="E204" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A205">
         <v>204</v>
       </c>
@@ -4810,16 +4822,16 @@
         <v>0</v>
       </c>
       <c r="C205">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D205">
-        <v>8.7100000000000009</v>
+        <v>0.25</v>
       </c>
       <c r="E205" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A206">
         <v>205</v>
       </c>
@@ -4827,16 +4839,16 @@
         <v>0</v>
       </c>
       <c r="C206">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D206">
-        <v>8.7100000000000009</v>
+        <v>0.25</v>
       </c>
       <c r="E206" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A207">
         <v>206</v>
       </c>
@@ -4844,16 +4856,16 @@
         <v>0</v>
       </c>
       <c r="C207">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D207">
-        <v>8.6</v>
+        <v>0.25</v>
       </c>
       <c r="E207" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A208">
         <v>207</v>
       </c>
@@ -4861,16 +4873,16 @@
         <v>0</v>
       </c>
       <c r="C208">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D208">
-        <v>8.73</v>
+        <v>0.25</v>
       </c>
       <c r="E208" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A209">
         <v>208</v>
       </c>
@@ -4878,16 +4890,16 @@
         <v>0</v>
       </c>
       <c r="C209">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D209">
-        <v>8.73</v>
+        <v>0.25</v>
       </c>
       <c r="E209" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A210">
         <v>209</v>
       </c>
@@ -4895,16 +4907,16 @@
         <v>0</v>
       </c>
       <c r="C210">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D210">
-        <v>8.7100000000000009</v>
+        <v>0.25</v>
       </c>
       <c r="E210" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A211">
         <v>210</v>
       </c>
@@ -4912,16 +4924,16 @@
         <v>0</v>
       </c>
       <c r="C211">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D211">
-        <v>8.73</v>
+        <v>0.25</v>
       </c>
       <c r="E211" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A212">
         <v>211</v>
       </c>
@@ -4929,16 +4941,16 @@
         <v>0</v>
       </c>
       <c r="C212">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D212">
-        <v>8.73</v>
+        <v>0.25</v>
       </c>
       <c r="E212" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A213">
         <v>212</v>
       </c>
@@ -4946,16 +4958,16 @@
         <v>0</v>
       </c>
       <c r="C213">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D213">
-        <v>8.73</v>
+        <v>0.25</v>
       </c>
       <c r="E213" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A214">
         <v>213</v>
       </c>
@@ -4963,16 +4975,16 @@
         <v>0</v>
       </c>
       <c r="C214">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D214">
-        <v>8.75</v>
+        <v>0.25</v>
       </c>
       <c r="E214" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A215">
         <v>214</v>
       </c>
@@ -4980,16 +4992,16 @@
         <v>0</v>
       </c>
       <c r="C215">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D215">
-        <v>8.75</v>
+        <v>0.25</v>
       </c>
       <c r="E215" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A216">
         <v>215</v>
       </c>
@@ -4997,16 +5009,16 @@
         <v>0</v>
       </c>
       <c r="C216">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D216">
-        <v>8.7200000000000006</v>
+        <v>0.25</v>
       </c>
       <c r="E216" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A217">
         <v>216</v>
       </c>
@@ -5014,16 +5026,16 @@
         <v>0</v>
       </c>
       <c r="C217">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D217">
-        <v>8.67</v>
+        <v>0.25</v>
       </c>
       <c r="E217" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A218">
         <v>217</v>
       </c>
@@ -5031,16 +5043,16 @@
         <v>0</v>
       </c>
       <c r="C218">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D218">
-        <v>8.6999999999999993</v>
+        <v>0.25</v>
       </c>
       <c r="E218" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A219">
         <v>218</v>
       </c>
@@ -5048,16 +5060,16 @@
         <v>0</v>
       </c>
       <c r="C219">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D219">
-        <v>8.74</v>
+        <v>0.25</v>
       </c>
       <c r="E219" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A220">
         <v>219</v>
       </c>
@@ -5065,16 +5077,16 @@
         <v>0</v>
       </c>
       <c r="C220">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D220">
-        <v>8.73</v>
+        <v>0.25</v>
       </c>
       <c r="E220" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A221">
         <v>220</v>
       </c>
@@ -5082,16 +5094,16 @@
         <v>0</v>
       </c>
       <c r="C221">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D221">
-        <v>8.73</v>
+        <v>0.25</v>
       </c>
       <c r="E221" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A222">
         <v>221</v>
       </c>
@@ -5099,16 +5111,16 @@
         <v>0</v>
       </c>
       <c r="C222">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D222">
-        <v>8.68</v>
+        <v>0.25</v>
       </c>
       <c r="E222" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A223">
         <v>222</v>
       </c>
@@ -5116,16 +5128,16 @@
         <v>0</v>
       </c>
       <c r="C223">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D223">
-        <v>8.69</v>
+        <v>0.25</v>
       </c>
       <c r="E223" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A224">
         <v>223</v>
       </c>
@@ -5133,16 +5145,16 @@
         <v>0</v>
       </c>
       <c r="C224">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D224">
-        <v>8.67</v>
+        <v>0.25</v>
       </c>
       <c r="E224" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A225">
         <v>224</v>
       </c>
@@ -5150,16 +5162,16 @@
         <v>0</v>
       </c>
       <c r="C225">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D225">
-        <v>8.67</v>
+        <v>0.25</v>
       </c>
       <c r="E225" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A226">
         <v>225</v>
       </c>
@@ -5167,16 +5179,16 @@
         <v>0</v>
       </c>
       <c r="C226">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D226">
-        <v>8.7200000000000006</v>
+        <v>0.25</v>
       </c>
       <c r="E226" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A227">
         <v>226</v>
       </c>
@@ -5184,16 +5196,16 @@
         <v>0</v>
       </c>
       <c r="C227">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D227">
-        <v>8.7200000000000006</v>
+        <v>0.25</v>
       </c>
       <c r="E227" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A228">
         <v>227</v>
       </c>
@@ -5201,16 +5213,16 @@
         <v>0</v>
       </c>
       <c r="C228">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D228">
-        <v>8.6999999999999993</v>
+        <v>0.25</v>
       </c>
       <c r="E228" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A229">
         <v>228</v>
       </c>
@@ -5218,16 +5230,16 @@
         <v>0</v>
       </c>
       <c r="C229">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D229">
-        <v>8.67</v>
+        <v>0.25</v>
       </c>
       <c r="E229" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A230">
         <v>229</v>
       </c>
@@ -5235,16 +5247,16 @@
         <v>0</v>
       </c>
       <c r="C230">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D230">
-        <v>8.65</v>
+        <v>0.25</v>
       </c>
       <c r="E230" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A231">
         <v>230</v>
       </c>
@@ -5252,16 +5264,16 @@
         <v>0</v>
       </c>
       <c r="C231">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D231">
-        <v>8.64</v>
+        <v>0.25</v>
       </c>
       <c r="E231" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A232">
         <v>231</v>
       </c>
@@ -5269,16 +5281,16 @@
         <v>0</v>
       </c>
       <c r="C232">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D232">
-        <v>8.7200000000000006</v>
+        <v>0.25</v>
       </c>
       <c r="E232" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A233">
         <v>232</v>
       </c>
@@ -5286,16 +5298,16 @@
         <v>0</v>
       </c>
       <c r="C233">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D233">
-        <v>8.7200000000000006</v>
+        <v>0.25</v>
       </c>
       <c r="E233" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A234">
         <v>233</v>
       </c>
@@ -5303,16 +5315,16 @@
         <v>0</v>
       </c>
       <c r="C234">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D234">
-        <v>8.61</v>
+        <v>0.25</v>
       </c>
       <c r="E234" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A235">
         <v>234</v>
       </c>
@@ -5320,16 +5332,16 @@
         <v>0</v>
       </c>
       <c r="C235">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D235">
-        <v>8.65</v>
+        <v>0.25</v>
       </c>
       <c r="E235" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A236">
         <v>235</v>
       </c>
@@ -5337,16 +5349,16 @@
         <v>0</v>
       </c>
       <c r="C236">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D236">
-        <v>8.6199999999999992</v>
+        <v>0.25</v>
       </c>
       <c r="E236" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A237">
         <v>236</v>
       </c>
@@ -5354,16 +5366,16 @@
         <v>0</v>
       </c>
       <c r="C237">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D237">
-        <v>8.68</v>
+        <v>0.25</v>
       </c>
       <c r="E237" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A238">
         <v>237</v>
       </c>
@@ -5371,16 +5383,16 @@
         <v>0</v>
       </c>
       <c r="C238">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D238">
-        <v>8.66</v>
+        <v>0.25</v>
       </c>
       <c r="E238" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A239">
         <v>238</v>
       </c>
@@ -5388,16 +5400,16 @@
         <v>0</v>
       </c>
       <c r="C239">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D239">
-        <v>8.66</v>
+        <v>0.25</v>
       </c>
       <c r="E239" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A240">
         <v>239</v>
       </c>
@@ -5405,16 +5417,16 @@
         <v>0</v>
       </c>
       <c r="C240">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D240">
-        <v>8.6300000000000008</v>
+        <v>0.25</v>
       </c>
       <c r="E240" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A241">
         <v>240</v>
       </c>
@@ -5422,16 +5434,16 @@
         <v>0</v>
       </c>
       <c r="C241">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D241">
-        <v>8.68</v>
+        <v>0.25</v>
       </c>
       <c r="E241" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A242">
         <v>241</v>
       </c>
@@ -5439,16 +5451,16 @@
         <v>0</v>
       </c>
       <c r="C242">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D242">
-        <v>8.69</v>
+        <v>0.25</v>
       </c>
       <c r="E242" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A243">
         <v>242</v>
       </c>
@@ -5456,16 +5468,16 @@
         <v>0</v>
       </c>
       <c r="C243">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D243">
-        <v>8.64</v>
+        <v>0.25</v>
       </c>
       <c r="E243" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A244">
         <v>243</v>
       </c>
@@ -5473,16 +5485,16 @@
         <v>0</v>
       </c>
       <c r="C244">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D244">
-        <v>8.61</v>
+        <v>0.25</v>
       </c>
       <c r="E244" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A245">
         <v>244</v>
       </c>
@@ -5490,16 +5502,16 @@
         <v>0</v>
       </c>
       <c r="C245">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D245">
-        <v>8.61</v>
+        <v>0.25</v>
       </c>
       <c r="E245" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A246">
         <v>245</v>
       </c>
@@ -5507,16 +5519,16 @@
         <v>0</v>
       </c>
       <c r="C246">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D246">
-        <v>8.64</v>
+        <v>0.25</v>
       </c>
       <c r="E246" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A247">
         <v>246</v>
       </c>
@@ -5524,16 +5536,16 @@
         <v>0</v>
       </c>
       <c r="C247">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D247">
-        <v>8.7100000000000009</v>
+        <v>0.25</v>
       </c>
       <c r="E247" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A248">
         <v>247</v>
       </c>
@@ -5541,16 +5553,16 @@
         <v>0</v>
       </c>
       <c r="C248">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D248">
-        <v>8.67</v>
+        <v>0.25</v>
       </c>
       <c r="E248" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A249">
         <v>248</v>
       </c>
@@ -5558,16 +5570,16 @@
         <v>0</v>
       </c>
       <c r="C249">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D249">
-        <v>8.64</v>
+        <v>0.25</v>
       </c>
       <c r="E249" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A250">
         <v>249</v>
       </c>
@@ -5575,16 +5587,16 @@
         <v>0</v>
       </c>
       <c r="C250">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D250">
-        <v>8.65</v>
+        <v>0.25</v>
       </c>
       <c r="E250" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A251">
         <v>250</v>
       </c>
@@ -5592,16 +5604,16 @@
         <v>0</v>
       </c>
       <c r="C251">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D251">
-        <v>8.65</v>
+        <v>0.25</v>
       </c>
       <c r="E251" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A252">
         <v>251</v>
       </c>
@@ -5609,16 +5621,16 @@
         <v>0</v>
       </c>
       <c r="C252">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D252">
-        <v>8.6999999999999993</v>
+        <v>0.25</v>
       </c>
       <c r="E252" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A253">
         <v>252</v>
       </c>
@@ -5626,16 +5638,16 @@
         <v>0</v>
       </c>
       <c r="C253">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D253">
-        <v>8.7200000000000006</v>
+        <v>0.25</v>
       </c>
       <c r="E253" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A254">
         <v>253</v>
       </c>
@@ -5643,16 +5655,16 @@
         <v>0</v>
       </c>
       <c r="C254">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D254">
-        <v>8.7200000000000006</v>
+        <v>0.25</v>
       </c>
       <c r="E254" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A255">
         <v>254</v>
       </c>
@@ -5660,16 +5672,16 @@
         <v>0</v>
       </c>
       <c r="C255">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D255">
-        <v>8.69</v>
+        <v>0.25</v>
       </c>
       <c r="E255" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A256">
         <v>255</v>
       </c>
@@ -5677,16 +5689,16 @@
         <v>0</v>
       </c>
       <c r="C256">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D256">
-        <v>8.6999999999999993</v>
+        <v>0.25</v>
       </c>
       <c r="E256" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A257">
         <v>256</v>
       </c>
@@ -5694,16 +5706,16 @@
         <v>0</v>
       </c>
       <c r="C257">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D257">
-        <v>8.6999999999999993</v>
+        <v>0.25</v>
       </c>
       <c r="E257" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A258">
         <v>257</v>
       </c>
@@ -5711,16 +5723,16 @@
         <v>0</v>
       </c>
       <c r="C258">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D258">
-        <v>8.76</v>
+        <v>0.25</v>
       </c>
       <c r="E258" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A259">
         <v>258</v>
       </c>
@@ -5728,16 +5740,16 @@
         <v>0</v>
       </c>
       <c r="C259">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D259">
-        <v>8.76</v>
+        <v>0.25</v>
       </c>
       <c r="E259" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A260">
         <v>259</v>
       </c>
@@ -5745,16 +5757,16 @@
         <v>0</v>
       </c>
       <c r="C260">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D260">
-        <v>8.7200000000000006</v>
+        <v>0.25</v>
       </c>
       <c r="E260" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A261">
         <v>260</v>
       </c>
@@ -5762,16 +5774,16 @@
         <v>0</v>
       </c>
       <c r="C261">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D261">
-        <v>8.7899999999999991</v>
+        <v>0.25</v>
       </c>
       <c r="E261" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A262">
         <v>261</v>
       </c>
@@ -5779,16 +5791,16 @@
         <v>0</v>
       </c>
       <c r="C262">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D262">
-        <v>8.8000000000000007</v>
+        <v>0.25</v>
       </c>
       <c r="E262" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A263">
         <v>262</v>
       </c>
@@ -5796,16 +5808,16 @@
         <v>0</v>
       </c>
       <c r="C263">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D263">
-        <v>8.8000000000000007</v>
+        <v>0.25</v>
       </c>
       <c r="E263" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A264">
         <v>263</v>
       </c>
@@ -5813,16 +5825,16 @@
         <v>0</v>
       </c>
       <c r="C264">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D264">
-        <v>8.77</v>
+        <v>0.25</v>
       </c>
       <c r="E264" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A265">
         <v>264</v>
       </c>
@@ -5830,16 +5842,16 @@
         <v>0</v>
       </c>
       <c r="C265">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D265">
-        <v>8.75</v>
+        <v>0.25</v>
       </c>
       <c r="E265" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A266">
         <v>265</v>
       </c>
@@ -5847,16 +5859,16 @@
         <v>0</v>
       </c>
       <c r="C266">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D266">
-        <v>8.74</v>
+        <v>0.25</v>
       </c>
       <c r="E266" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A267">
         <v>266</v>
       </c>
@@ -5864,16 +5876,16 @@
         <v>0</v>
       </c>
       <c r="C267">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D267">
-        <v>8.73</v>
+        <v>0.25</v>
       </c>
       <c r="E267" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A268">
         <v>267</v>
       </c>
@@ -5881,16 +5893,16 @@
         <v>0</v>
       </c>
       <c r="C268">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D268">
-        <v>8.73</v>
+        <v>0.25</v>
       </c>
       <c r="E268" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A269">
         <v>268</v>
       </c>
@@ -5898,16 +5910,16 @@
         <v>0</v>
       </c>
       <c r="C269">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D269">
-        <v>8.73</v>
+        <v>0.25</v>
       </c>
       <c r="E269" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A270">
         <v>269</v>
       </c>
@@ -5915,16 +5927,16 @@
         <v>0</v>
       </c>
       <c r="C270">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D270">
-        <v>8.69</v>
+        <v>0.25</v>
       </c>
       <c r="E270" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A271">
         <v>270</v>
       </c>
@@ -5932,16 +5944,16 @@
         <v>0</v>
       </c>
       <c r="C271">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D271">
-        <v>8.7100000000000009</v>
+        <v>0.25</v>
       </c>
       <c r="E271" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A272">
         <v>271</v>
       </c>
@@ -5949,16 +5961,16 @@
         <v>0</v>
       </c>
       <c r="C272">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D272">
-        <v>8.64</v>
+        <v>0.25</v>
       </c>
       <c r="E272" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A273">
         <v>272</v>
       </c>
@@ -5966,16 +5978,16 @@
         <v>0</v>
       </c>
       <c r="C273">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D273">
-        <v>8.61</v>
+        <v>0.25</v>
       </c>
       <c r="E273" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A274">
         <v>273</v>
       </c>
@@ -5983,16 +5995,16 @@
         <v>0</v>
       </c>
       <c r="C274">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D274">
-        <v>8.6300000000000008</v>
+        <v>0.25</v>
       </c>
       <c r="E274" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A275">
         <v>274</v>
       </c>
@@ -6000,16 +6012,16 @@
         <v>0</v>
       </c>
       <c r="C275">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D275">
-        <v>8.6300000000000008</v>
+        <v>0.25</v>
       </c>
       <c r="E275" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A276">
         <v>275</v>
       </c>
@@ -6017,16 +6029,16 @@
         <v>0</v>
       </c>
       <c r="C276">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D276">
-        <v>8.61</v>
+        <v>0.25</v>
       </c>
       <c r="E276" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A277">
         <v>276</v>
       </c>
@@ -6034,16 +6046,16 @@
         <v>0</v>
       </c>
       <c r="C277">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D277">
-        <v>8.73</v>
+        <v>0.25</v>
       </c>
       <c r="E277" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A278">
         <v>277</v>
       </c>
@@ -6051,16 +6063,16 @@
         <v>0</v>
       </c>
       <c r="C278">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D278">
-        <v>8.7100000000000009</v>
+        <v>0.25</v>
       </c>
       <c r="E278" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A279">
         <v>278</v>
       </c>
@@ -6068,16 +6080,16 @@
         <v>0</v>
       </c>
       <c r="C279">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D279">
-        <v>8.7799999999999994</v>
+        <v>0.25</v>
       </c>
       <c r="E279" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A280">
         <v>279</v>
       </c>
@@ -6085,16 +6097,16 @@
         <v>0</v>
       </c>
       <c r="C280">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D280">
-        <v>8.8000000000000007</v>
+        <v>0.25</v>
       </c>
       <c r="E280" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A281">
         <v>280</v>
       </c>
@@ -6102,16 +6114,16 @@
         <v>0</v>
       </c>
       <c r="C281">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D281">
-        <v>8.8000000000000007</v>
+        <v>0.25</v>
       </c>
       <c r="E281" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A282">
         <v>281</v>
       </c>
@@ -6119,16 +6131,16 @@
         <v>0</v>
       </c>
       <c r="C282">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D282">
-        <v>8.82</v>
+        <v>0.25</v>
       </c>
       <c r="E282" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A283">
         <v>282</v>
       </c>
@@ -6136,16 +6148,16 @@
         <v>0</v>
       </c>
       <c r="C283">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D283">
-        <v>8.8000000000000007</v>
+        <v>0.25</v>
       </c>
       <c r="E283" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A284">
         <v>283</v>
       </c>
@@ -6153,16 +6165,16 @@
         <v>0</v>
       </c>
       <c r="C284">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D284">
-        <v>8.77</v>
+        <v>0.25</v>
       </c>
       <c r="E284" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A285">
         <v>284</v>
       </c>
@@ -6170,16 +6182,16 @@
         <v>0</v>
       </c>
       <c r="C285">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D285">
-        <v>8.77</v>
+        <v>0.25</v>
       </c>
       <c r="E285" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A286">
         <v>285</v>
       </c>
@@ -6187,16 +6199,16 @@
         <v>0</v>
       </c>
       <c r="C286">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D286">
-        <v>8.84</v>
+        <v>0.25</v>
       </c>
       <c r="E286" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A287">
         <v>286</v>
       </c>
@@ -6204,16 +6216,16 @@
         <v>0</v>
       </c>
       <c r="C287">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D287">
-        <v>8.84</v>
+        <v>0.25</v>
       </c>
       <c r="E287" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A288">
         <v>287</v>
       </c>
@@ -6221,16 +6233,16 @@
         <v>0</v>
       </c>
       <c r="C288">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D288">
-        <v>8.73</v>
+        <v>0.25</v>
       </c>
       <c r="E288" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A289">
         <v>288</v>
       </c>
@@ -6238,16 +6250,16 @@
         <v>0</v>
       </c>
       <c r="C289">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D289">
-        <v>8.77</v>
+        <v>0.25</v>
       </c>
       <c r="E289" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A290">
         <v>289</v>
       </c>
@@ -6255,16 +6267,16 @@
         <v>0</v>
       </c>
       <c r="C290">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D290">
-        <v>8.8800000000000008</v>
+        <v>0.25</v>
       </c>
       <c r="E290" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A291">
         <v>290</v>
       </c>
@@ -6272,16 +6284,16 @@
         <v>0</v>
       </c>
       <c r="C291">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D291">
-        <v>8.84</v>
+        <v>0.25</v>
       </c>
       <c r="E291" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A292">
         <v>291</v>
       </c>
@@ -6289,16 +6301,16 @@
         <v>0</v>
       </c>
       <c r="C292">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D292">
-        <v>8.7799999999999994</v>
+        <v>0.25</v>
       </c>
       <c r="E292" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A293">
         <v>292</v>
       </c>
@@ -6306,16 +6318,16 @@
         <v>0</v>
       </c>
       <c r="C293">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D293">
-        <v>8.7799999999999994</v>
+        <v>0.25</v>
       </c>
       <c r="E293" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A294">
         <v>293</v>
       </c>
@@ -6323,16 +6335,16 @@
         <v>0</v>
       </c>
       <c r="C294">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D294">
-        <v>8.76</v>
+        <v>0.25</v>
       </c>
       <c r="E294" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A295">
         <v>294</v>
       </c>
@@ -6340,16 +6352,16 @@
         <v>0</v>
       </c>
       <c r="C295">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D295">
-        <v>8.84</v>
+        <v>0.25</v>
       </c>
       <c r="E295" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A296">
         <v>295</v>
       </c>
@@ -6357,16 +6369,16 @@
         <v>0</v>
       </c>
       <c r="C296">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D296">
-        <v>8.82</v>
+        <v>0.25</v>
       </c>
       <c r="E296" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A297">
         <v>296</v>
       </c>
@@ -6374,16 +6386,16 @@
         <v>0</v>
       </c>
       <c r="C297">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D297">
-        <v>8.85</v>
+        <v>0.25</v>
       </c>
       <c r="E297" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A298">
         <v>297</v>
       </c>
@@ -6391,16 +6403,16 @@
         <v>0</v>
       </c>
       <c r="C298">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D298">
-        <v>8.86</v>
+        <v>0.25</v>
       </c>
       <c r="E298" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A299">
         <v>298</v>
       </c>
@@ -6408,16 +6420,16 @@
         <v>0</v>
       </c>
       <c r="C299">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D299">
-        <v>8.86</v>
+        <v>0.25</v>
       </c>
       <c r="E299" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A300">
         <v>299</v>
       </c>
@@ -6425,16 +6437,16 @@
         <v>0</v>
       </c>
       <c r="C300">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D300">
-        <v>8.8699999999999992</v>
+        <v>0.25</v>
       </c>
       <c r="E300" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A301">
         <v>300</v>
       </c>
@@ -6442,16 +6454,16 @@
         <v>0</v>
       </c>
       <c r="C301">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D301">
-        <v>8.84</v>
+        <v>0.25</v>
       </c>
       <c r="E301" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A302">
         <v>301</v>
       </c>
@@ -6459,16 +6471,16 @@
         <v>0</v>
       </c>
       <c r="C302">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D302">
-        <v>8.85</v>
+        <v>0.25</v>
       </c>
       <c r="E302" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A303">
         <v>302</v>
       </c>
@@ -6476,16 +6488,16 @@
         <v>0</v>
       </c>
       <c r="C303">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D303">
-        <v>8.83</v>
+        <v>0.25</v>
       </c>
       <c r="E303" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A304">
         <v>303</v>
       </c>
@@ -6493,16 +6505,16 @@
         <v>0</v>
       </c>
       <c r="C304">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D304">
-        <v>8.8699999999999992</v>
+        <v>0.25</v>
       </c>
       <c r="E304" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A305">
         <v>304</v>
       </c>
@@ -6510,16 +6522,16 @@
         <v>0</v>
       </c>
       <c r="C305">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D305">
-        <v>8.8699999999999992</v>
+        <v>0.25</v>
       </c>
       <c r="E305" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A306">
         <v>305</v>
       </c>
@@ -6527,16 +6539,16 @@
         <v>0</v>
       </c>
       <c r="C306">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D306">
-        <v>8.98</v>
+        <v>0.25</v>
       </c>
       <c r="E306" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A307">
         <v>306</v>
       </c>
@@ -6544,16 +6556,16 @@
         <v>0</v>
       </c>
       <c r="C307">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D307">
-        <v>8.92</v>
+        <v>0.25</v>
       </c>
       <c r="E307" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A308">
         <v>307</v>
       </c>
@@ -6561,16 +6573,16 @@
         <v>0</v>
       </c>
       <c r="C308">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D308">
-        <v>8.8800000000000008</v>
+        <v>0.25</v>
       </c>
       <c r="E308" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A309">
         <v>308</v>
       </c>
@@ -6578,16 +6590,16 @@
         <v>0</v>
       </c>
       <c r="C309">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D309">
-        <v>8.92</v>
+        <v>0.25</v>
       </c>
       <c r="E309" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A310">
         <v>309</v>
       </c>
@@ -6595,16 +6607,16 @@
         <v>0</v>
       </c>
       <c r="C310">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D310">
-        <v>8.82</v>
+        <v>0.25</v>
       </c>
       <c r="E310" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A311">
         <v>310</v>
       </c>
@@ -6612,16 +6624,16 @@
         <v>0</v>
       </c>
       <c r="C311">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D311">
-        <v>8.82</v>
+        <v>0.25</v>
       </c>
       <c r="E311" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A312">
         <v>311</v>
       </c>
@@ -6629,16 +6641,16 @@
         <v>0</v>
       </c>
       <c r="C312">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D312">
-        <v>8.82</v>
+        <v>0.25</v>
       </c>
       <c r="E312" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A313">
         <v>312</v>
       </c>
@@ -6646,16 +6658,16 @@
         <v>0</v>
       </c>
       <c r="C313">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D313">
-        <v>8.82</v>
+        <v>0.25</v>
       </c>
       <c r="E313" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A314">
         <v>313</v>
       </c>
@@ -6663,16 +6675,16 @@
         <v>0</v>
       </c>
       <c r="C314">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D314">
-        <v>8.82</v>
+        <v>0.25</v>
       </c>
       <c r="E314" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A315">
         <v>314</v>
       </c>
@@ -6680,16 +6692,16 @@
         <v>0</v>
       </c>
       <c r="C315">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D315">
-        <v>8.8699999999999992</v>
+        <v>0.25</v>
       </c>
       <c r="E315" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A316">
         <v>315</v>
       </c>
@@ -6697,10 +6709,10 @@
         <v>0</v>
       </c>
       <c r="C316">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D316">
-        <v>8.94</v>
+        <v>0.25</v>
       </c>
       <c r="E316" t="s">
         <v>314</v>
